--- a/Luban/Configs/Datas/LevelDatas/Events.xlsx
+++ b/Luban/Configs/Datas/LevelDatas/Events.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Game Projects\Unity Projects\Genpai\Luban\Configs\Datas\LevelDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D7D5467-1170-48FD-A5CD-C5647A026832}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF35A02C-E4B3-4474-84AC-A3704A4227D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9150" yWindow="7510" windowWidth="27730" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
   <si>
     <t>##var</t>
   </si>
@@ -86,14 +86,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>这是第0个测试关卡</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>这是第1个测试关卡</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>测试事件0</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -117,13 +109,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>level.LevelUnlock</t>
-  </si>
-  <si>
-    <t>EventUnlock</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>unlock_type</t>
   </si>
   <si>
@@ -131,6 +116,26 @@
   </si>
   <si>
     <t>extra_condition</t>
+  </si>
+  <si>
+    <t>Level</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是第0个测试事件</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是第1个测试事件</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>list,level.LevelUnlocker</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>*EventUnlockers</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -236,13 +241,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -530,7 +535,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -563,17 +568,17 @@
         <v>10</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
       <c r="H1" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K1" s="5"/>
+        <v>18</v>
+      </c>
+      <c r="K1" s="4"/>
     </row>
     <row r="2" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -589,7 +594,7 @@
         <v>3</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
@@ -605,13 +610,13 @@
         <v>0</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -637,54 +642,54 @@
         <v>14</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>2000</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="6" t="s">
+      <c r="C5" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="6">
+      <c r="D5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="7">
+        <v>1000</v>
+      </c>
+      <c r="G5" t="b">
         <v>1</v>
       </c>
-      <c r="F5" s="4">
-        <v>1</v>
-      </c>
-      <c r="G5" s="6">
-        <v>1</v>
-      </c>
-      <c r="I5" s="6"/>
+      <c r="I5" s="5"/>
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B6">
         <v>2001</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="6" t="s">
+      <c r="C6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="6">
+      <c r="D6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6">
+        <v>1000</v>
+      </c>
+      <c r="G6" t="b">
         <v>1</v>
       </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="I6" s="6"/>
+      <c r="I6" s="5"/>
       <c r="K6" s="3"/>
     </row>
   </sheetData>

--- a/Luban/Configs/Datas/LevelDatas/Events.xlsx
+++ b/Luban/Configs/Datas/LevelDatas/Events.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Game Projects\Unity Projects\Genpai\Luban\Configs\Datas\LevelDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF35A02C-E4B3-4474-84AC-A3704A4227D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68231D9E-A10D-4905-972D-F06BBCE2638D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9150" yWindow="7510" windowWidth="27730" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3910" yWindow="8900" windowWidth="27730" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
   <si>
     <t>##var</t>
   </si>
@@ -94,21 +94,10 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>eventStory</t>
-  </si>
-  <si>
-    <t>selectionStory</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>事件剧情</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>选项内容</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>unlock_type</t>
   </si>
   <si>
@@ -135,6 +124,14 @@
   </si>
   <si>
     <t>*EventUnlockers</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EventDialogID</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -535,7 +532,7 @@
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -544,8 +541,8 @@
     <col min="2" max="2" width="9.58203125" customWidth="1"/>
     <col min="3" max="3" width="15.25" customWidth="1"/>
     <col min="4" max="4" width="18.25" customWidth="1"/>
-    <col min="5" max="5" width="17.58203125" customWidth="1"/>
-    <col min="6" max="6" width="14.08203125" customWidth="1"/>
+    <col min="5" max="5" width="15.58203125" customWidth="1"/>
+    <col min="6" max="6" width="12.83203125" customWidth="1"/>
     <col min="7" max="7" width="12.33203125" customWidth="1"/>
     <col min="8" max="8" width="14.33203125" customWidth="1"/>
     <col min="9" max="9" width="21.5" customWidth="1"/>
@@ -568,15 +565,12 @@
         <v>10</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
       <c r="H1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="K1" s="4"/>
     </row>
@@ -594,15 +588,12 @@
         <v>3</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
       <c r="H2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -610,13 +601,13 @@
         <v>0</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -642,10 +633,7 @@
         <v>14</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -656,16 +644,19 @@
         <v>15</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7">
         <v>1000</v>
       </c>
-      <c r="G5" t="b">
+      <c r="G5">
         <v>1</v>
+      </c>
+      <c r="H5">
+        <v>3000</v>
       </c>
       <c r="I5" s="5"/>
       <c r="K5" s="3"/>
@@ -678,16 +669,19 @@
         <v>16</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F6">
         <v>1000</v>
       </c>
-      <c r="G6" t="b">
+      <c r="G6">
         <v>1</v>
+      </c>
+      <c r="H6">
+        <v>3000</v>
       </c>
       <c r="I6" s="5"/>
       <c r="K6" s="3"/>

--- a/Luban/Configs/Datas/LevelDatas/Events.xlsx
+++ b/Luban/Configs/Datas/LevelDatas/Events.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Game Projects\Unity Projects\Genpai\Luban\Configs\Datas\LevelDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68231D9E-A10D-4905-972D-F06BBCE2638D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFEDFB1D-43A9-4F64-ACF9-E7FCCE1D7D34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3910" yWindow="8900" windowWidth="27730" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3580" yWindow="9480" windowWidth="27730" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>##var</t>
   </si>
@@ -133,6 +133,12 @@
   <si>
     <t>EventDialogID</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试事件2</t>
+  </si>
+  <si>
+    <t>这是第2个测试事件</t>
   </si>
 </sst>
 </file>
@@ -529,10 +535,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -686,6 +692,22 @@
       <c r="I6" s="5"/>
       <c r="K6" s="3"/>
     </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>2002</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="7"/>
+      <c r="H7">
+        <v>3000</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="E1:G1"/>

--- a/Luban/Configs/Datas/LevelDatas/Events.xlsx
+++ b/Luban/Configs/Datas/LevelDatas/Events.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\Game Projects\Unity Projects\Genpai\Luban\Configs\Datas\LevelDatas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFEDFB1D-43A9-4F64-ACF9-E7FCCE1D7D34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7083B52-6423-4FE9-83FC-63A940896FBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3580" yWindow="9480" windowWidth="27730" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2620" yWindow="4840" windowWidth="27730" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -538,7 +538,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -644,7 +644,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B5">
-        <v>2000</v>
+        <v>31000000</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>15</v>
@@ -656,20 +656,20 @@
         <v>21</v>
       </c>
       <c r="F5" s="7">
-        <v>1000</v>
+        <v>30000000</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="H5">
-        <v>3000</v>
+        <v>32000000</v>
       </c>
       <c r="I5" s="5"/>
       <c r="K5" s="3"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B6">
-        <v>2001</v>
+        <v>31000001</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>16</v>
@@ -680,21 +680,21 @@
       <c r="E6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="F6">
-        <v>1000</v>
+      <c r="F6" s="7">
+        <v>30000000</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="H6">
-        <v>3000</v>
+        <v>32000000</v>
       </c>
       <c r="I6" s="5"/>
       <c r="K6" s="3"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B7">
-        <v>2002</v>
+        <v>31000002</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>28</v>
@@ -705,7 +705,7 @@
       <c r="E7" s="5"/>
       <c r="F7" s="7"/>
       <c r="H7">
-        <v>3000</v>
+        <v>32000000</v>
       </c>
     </row>
   </sheetData>
